--- a/biology/Zoologie/Eotriceratops/Eotriceratops.xlsx
+++ b/biology/Zoologie/Eotriceratops/Eotriceratops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eotriceratops xerinsularis
 Eotriceratops (qui signifie « Triceratops de l'aube ») est un genre éteint de dinosaures cératopsiens qui a vécu à la fin du Crétacé supérieur (Maastrichtien). Il a été découvert dans la formation géologique de Horseshoe Canyon en Alberta.
-Une seule espèce est rattachée au genre : Eotriceratops xerinsularis, décrite en 2007 par Wu et al.[1].
-Ses fossiles ont été trouvés au sommet de la formation de Horseshoe Canyon, dans un niveau datant d'environ 67,6 millions années[1].
+Une seule espèce est rattachée au genre : Eotriceratops xerinsularis, décrite en 2007 par Wu et al..
+Ses fossiles ont été trouvés au sommet de la formation de Horseshoe Canyon, dans un niveau datant d'environ 67,6 millions années.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La longueur totale de l'animal était d'environ 9 mètres, et la longueur estimée du crâne holotype a été évaluée à 3 mètres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale de l'animal était d'environ 9 mètres, et la longueur estimée du crâne holotype a été évaluée à 3 mètres.
 </t>
         </is>
       </c>
